--- a/ho-lee.xlsx
+++ b/ho-lee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEECBFF-6089-4E11-B0E8-440BA1A4B3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD1DA5-7D43-401F-83D3-610CDA8B0144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66BF1424-4C36-41C8-8638-427DDEA65CBA}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="Dtu">Sheet1!$G$6</definedName>
     <definedName name="instrument">Sheet1!$C$2</definedName>
     <definedName name="intB">Sheet1!$G$3</definedName>
+    <definedName name="phi">Sheet1!$B$5</definedName>
     <definedName name="t">Sheet1!$C$7</definedName>
     <definedName name="u">Sheet1!$B$2</definedName>
     <definedName name="σ">Sheet1!$C$8</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>instrument</t>
   </si>
@@ -104,12 +105,18 @@
   </si>
   <si>
     <t>Dt</t>
+  </si>
+  <si>
+    <t>phi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -139,11 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,18 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20790C72-9B62-4C6C-B933-A7309E09F086}">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -478,7 +488,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.\TMX.INSTRUMENT(B2,B3)</f>
-        <v>2418072224656</v>
+        <v>3135378923424</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -487,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -499,25 +509,28 @@
       </c>
       <c r="G3">
         <f ca="1">SUM(Bt)*dt</f>
-        <v>-2.1527346409282076E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>-0.1672938310888975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">_xlfn.TAKE(Bt,-1)</f>
-        <v>-1.3182566695605025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.28499523478969296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B5">
         <v>0.1</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.\TMX.PWFLAT.CURVE(0,0,B5)</f>
-        <v>2419950284960</v>
+        <v>3135378923952</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -525,83 +538,100 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">_xll.TMX.CURVE.DISCOUNT(curve,t)*EXP(-σ*intB)</f>
-        <v>0.90678739102431616</v>
-      </c>
-      <c r="H5" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">_xll.MONTE.MEAN(D_t)</f>
-        <v>0.90637971499246905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <f ca="1">EXP(-phi*t-σ*intB)</f>
+        <v>1.069609716593553</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="array" aca="1" ref="H5:I5" ca="1">_xll.MONTE.STDEV(D_t)</f>
+        <v>1.0940056917144882</v>
+      </c>
+      <c r="I5" s="2">
+        <f ca="1"/>
+        <v>0.73585084860350192</v>
+      </c>
+      <c r="J5" s="2">
+        <f ca="1">C9-H5</f>
+        <v>-2.5066585967241872E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">_xll.TMX.CURVE.DISCOUNT(curve,t)*EXP(σ*σ*(u-t)^3/6 - σ*(u-t)*B_t)</f>
-        <v>1.0340595162055064</v>
-      </c>
-      <c r="H6" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">_xll.MONTE.MEAN(Dtu)</f>
-        <v>0.910672457043744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <f ca="1">EXP(-phi*(u - t) + σ*σ*(u-t)^3/6 - σ*(u-t)*B_t)</f>
+        <v>0.80386127508024985</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="array" aca="1" ref="H6:I6" ca="1">_xll.MONTE.STDEV(Dtu)</f>
+        <v>1.7572712736845313</v>
+      </c>
+      <c r="I6" s="2">
+        <f ca="1"/>
+        <v>2.3358511768977794</v>
+      </c>
+      <c r="J6" s="2">
+        <f ca="1">C12-H6</f>
+        <v>-1.2084596375905048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f ca="1">Dtu*D_t/C9</f>
-        <v>1.0362879697207585</v>
-      </c>
-      <c r="H7">
+        <v>0.80436558639891742</v>
+      </c>
+      <c r="H7" s="2">
         <f t="array" aca="1" ref="H7:I7" ca="1">_xll.MONTE.STDEV(G7)</f>
-        <v>0.91223420965991964</v>
-      </c>
-      <c r="I7">
+        <v>1.8136656864326512</v>
+      </c>
+      <c r="I7" s="2">
         <f ca="1"/>
-        <v>0.10605220806157886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.1376058759586258</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" cm="1">
-        <f t="array" ref="C9">_xll.TMX.CURVE.DISCOUNT(curve,t)</f>
-        <v>0.90483741803595952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f>EXP(-phi*t+σ^2*t^3/6)</f>
+        <v>1.0689391057472464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" cm="1">
-        <f t="array" ref="C12:C14">_xll.TMX.HO_LEE.moments(instrument, curve, t, σ)</f>
-        <v>0.90032452258626572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="array" ref="C12:C14">_xll.TMX.HO_LEE.Moments(instrument, curve, t, σ)</f>
+        <v>0.5488116360940265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>0.90483741803595963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.90483741803595974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14">
-        <v>9.9999999999998927E-3</v>
+        <v>1.3132616875182228</v>
       </c>
       <c r="D14">
         <f>SQRT(C14)</f>
-        <v>9.9999999999999464E-2</v>
+        <v>1.145976303209723</v>
       </c>
     </row>
   </sheetData>
